--- a/test_export.xlsx
+++ b/test_export.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +440,1269 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>uf</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>uf</t>
+          <t>nfe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>nfe</t>
+          <t>pedido</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pedido</t>
+          <t>data_recebimento</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>data_recebimento</t>
+          <t>valido</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>valido</t>
+          <t>data_planejamento</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>data_planejamento</t>
+          <t>decisao</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>decisao</t>
+          <t>mensagem</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mensagem</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>timestamp</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2655</v>
       </c>
       <c r="C2" t="n">
-        <v>99999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>88888</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2025-06-08 18:52:06</t>
-        </is>
+        <v>79091</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45814.73378472222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17782</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100474</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45814.72655092592</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27420</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99611</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>45814.71640046296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19599</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78538</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45814.45443287037</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81642</v>
+      </c>
+      <c r="C6" t="n">
+        <v>78355</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45813.79239583333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SP-RGT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61503</v>
+      </c>
+      <c r="C7" t="n">
+        <v>76166</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45813.60449074074</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SP-RGT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>77130</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45813.60408564815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SP-RGT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>375753</v>
+      </c>
+      <c r="C9" t="n">
+        <v>77445</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>45813.60375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SP-RGT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81290</v>
+      </c>
+      <c r="C10" t="n">
+        <v>77474</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45813.60328703704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SP-RGT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4270</v>
+      </c>
+      <c r="C11" t="n">
+        <v>78148</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>45813.60270833333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SP-RGT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11505</v>
+      </c>
+      <c r="C12" t="n">
+        <v>78650</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>45813.60210648148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SP-ITV</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61686</v>
+      </c>
+      <c r="C13" t="n">
+        <v>77461</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>45813.48523148148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>141924</v>
+      </c>
+      <c r="C14" t="n">
+        <v>78138</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45813.4416087963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>141923</v>
+      </c>
+      <c r="C15" t="n">
+        <v>78137</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>45813.4409375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4281</v>
+      </c>
+      <c r="C16" t="n">
+        <v>78127</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>45812.70292824074</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SP-MOC</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>25676</v>
+      </c>
+      <c r="C17" t="n">
+        <v>99914</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>45812.48423611111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11436</v>
+      </c>
+      <c r="C18" t="n">
+        <v>78272</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>45811.73185185185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7664</v>
+      </c>
+      <c r="C19" t="n">
+        <v>77605</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45811.70473379629</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>79</v>
+      </c>
+      <c r="C20" t="n">
+        <v>97565</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45811.70020833334</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>141935</v>
+      </c>
+      <c r="C21" t="n">
+        <v>100300</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>45811.69357638889</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7664</v>
+      </c>
+      <c r="C22" t="n">
+        <v>77605</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>45811.68252314815</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SP-ORN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>245945</v>
+      </c>
+      <c r="C23" t="n">
+        <v>78292</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Abrir JIRA após o fechamento do mês</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45811.67506944444</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>808670</v>
+      </c>
+      <c r="C24" t="n">
+        <v>77629</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>45805.73222222222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>808880</v>
+      </c>
+      <c r="C25" t="n">
+        <v>98797</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45805.51581018518</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>222446</v>
+      </c>
+      <c r="C26" t="n">
+        <v>78335</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45805.51493055555</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>81543</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100068</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>45805.51311342593</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>471408</v>
+      </c>
+      <c r="C28" t="n">
+        <v>100307</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45805.50700231481</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18851</v>
+      </c>
+      <c r="C29" t="n">
+        <v>99995</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Abrir JIRA após o fechamento do mês</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45805.50444444444</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>36246</v>
+      </c>
+      <c r="C30" t="n">
+        <v>96875</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45805.50053240741</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8089</v>
+      </c>
+      <c r="C31" t="n">
+        <v>97867</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Abrir JIRA após o fechamento do mês</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45805.49768518518</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>27379</v>
+      </c>
+      <c r="C32" t="n">
+        <v>77556</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45805.4262962963</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>376254</v>
+      </c>
+      <c r="C33" t="n">
+        <v>73185</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45804.78577546297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>81543</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100068</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pode abrir JIRA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Validação concluída com sucesso</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45804.62184027778</v>
       </c>
     </row>
   </sheetData>

--- a/test_export.xlsx
+++ b/test_export.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Registros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -496,11 +492,15 @@
       <c r="C2" t="n">
         <v>79091</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>45814</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,8 +517,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>45814.73378472222</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-06-06 17:36:39</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -533,11 +535,15 @@
       <c r="C3" t="n">
         <v>100474</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -554,8 +560,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>45814.72655092592</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-06-06 17:26:14</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -570,11 +578,15 @@
       <c r="C4" t="n">
         <v>99611</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>45812</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -591,8 +603,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>45814.71640046296</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-06-06 17:11:37</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -607,11 +621,15 @@
       <c r="C5" t="n">
         <v>78538</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -628,8 +646,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>45814.45443287037</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-06-06 10:54:23</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -644,11 +664,15 @@
       <c r="C6" t="n">
         <v>78355</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -665,8 +689,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>45813.79239583333</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-06-05 19:01:03</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -681,11 +707,15 @@
       <c r="C7" t="n">
         <v>76166</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -702,8 +732,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>45813.60449074074</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:30:28</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -718,11 +750,15 @@
       <c r="C8" t="n">
         <v>77130</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -739,8 +775,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n">
-        <v>45813.60408564815</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:29:53</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -755,11 +793,15 @@
       <c r="C9" t="n">
         <v>77445</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -776,8 +818,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n">
-        <v>45813.60375</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:29:24</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -792,11 +836,15 @@
       <c r="C10" t="n">
         <v>77474</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -813,8 +861,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>45813.60328703704</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:28:44</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -829,11 +879,15 @@
       <c r="C11" t="n">
         <v>78148</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -850,8 +904,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>45813.60270833333</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:27:54</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -866,11 +922,15 @@
       <c r="C12" t="n">
         <v>78650</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -887,8 +947,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>45813.60210648148</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-06-05 14:27:02</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -903,11 +965,15 @@
       <c r="C13" t="n">
         <v>77461</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -924,8 +990,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>45813.48523148148</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-06-05 11:38:44</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -940,11 +1008,15 @@
       <c r="C14" t="n">
         <v>78138</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -961,8 +1033,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>45813.4416087963</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:35:55</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -977,11 +1051,15 @@
       <c r="C15" t="n">
         <v>78137</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -998,8 +1076,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>45813.4409375</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-06-05 10:34:57</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1014,11 +1094,15 @@
       <c r="C16" t="n">
         <v>78127</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>45812</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1035,8 +1119,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>45812.70292824074</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-06-04 16:52:13</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1051,11 +1137,15 @@
       <c r="C17" t="n">
         <v>99914</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1072,8 +1162,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>45812.48423611111</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-06-04 11:37:18</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1088,11 +1180,15 @@
       <c r="C18" t="n">
         <v>78272</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1109,8 +1205,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I18" s="2" t="n">
-        <v>45811.73185185185</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-06-03 17:33:52</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1125,11 +1223,15 @@
       <c r="C19" t="n">
         <v>77605</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1146,8 +1248,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>45811.70473379629</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-06-03 16:54:49</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1162,11 +1266,15 @@
       <c r="C20" t="n">
         <v>97565</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1183,8 +1291,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I20" s="2" t="n">
-        <v>45811.70020833334</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-06-03 16:48:18</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1199,11 +1309,15 @@
       <c r="C21" t="n">
         <v>100300</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1220,8 +1334,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>45811.69357638889</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-06-03 16:38:45</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1236,11 +1352,15 @@
       <c r="C22" t="n">
         <v>77605</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1257,8 +1377,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I22" s="2" t="n">
-        <v>45811.68252314815</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-06-03 16:22:50</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1273,11 +1395,15 @@
       <c r="C23" t="n">
         <v>78292</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>45797</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1294,8 +1420,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I23" s="2" t="n">
-        <v>45811.67506944444</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-06-03 16:12:06</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1310,11 +1438,15 @@
       <c r="C24" t="n">
         <v>77629</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>45805</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1331,8 +1463,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I24" s="2" t="n">
-        <v>45805.73222222222</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:34:24</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1347,11 +1481,15 @@
       <c r="C25" t="n">
         <v>98797</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>45804</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1368,8 +1506,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I25" s="2" t="n">
-        <v>45805.51581018518</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:22:46</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1384,11 +1524,15 @@
       <c r="C26" t="n">
         <v>78335</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>45805</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1405,8 +1549,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I26" s="2" t="n">
-        <v>45805.51493055555</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:21:30</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1421,11 +1567,15 @@
       <c r="C27" t="n">
         <v>100068</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>45804</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1442,8 +1592,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I27" s="2" t="n">
-        <v>45805.51311342593</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:18:53</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1458,11 +1610,15 @@
       <c r="C28" t="n">
         <v>100307</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>45803</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1479,8 +1635,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I28" s="2" t="n">
-        <v>45805.50700231481</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:10:05</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1495,11 +1653,15 @@
       <c r="C29" t="n">
         <v>99995</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>45803</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1516,8 +1678,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I29" s="2" t="n">
-        <v>45805.50444444444</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:06:24</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1532,11 +1696,15 @@
       <c r="C30" t="n">
         <v>96875</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>45803</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1553,8 +1721,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I30" s="2" t="n">
-        <v>45805.50053240741</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:00:46</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1569,11 +1739,15 @@
       <c r="C31" t="n">
         <v>97867</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>45798</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1590,8 +1764,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I31" s="2" t="n">
-        <v>45805.49768518518</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-05-28 11:56:40</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1606,11 +1782,15 @@
       <c r="C32" t="n">
         <v>77556</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>45804</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1627,8 +1807,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I32" s="2" t="n">
-        <v>45805.4262962963</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-05-28 10:13:52</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1643,11 +1825,15 @@
       <c r="C33" t="n">
         <v>73185</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>45803</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1664,8 +1850,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I33" s="2" t="n">
-        <v>45804.78577546297</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-05-27 18:51:31</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1680,11 +1868,15 @@
       <c r="C34" t="n">
         <v>100068</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>45804</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1701,8 +1893,10 @@
           <t>Validação concluída com sucesso</t>
         </is>
       </c>
-      <c r="I34" s="2" t="n">
-        <v>45804.62184027778</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:55:27</t>
+        </is>
       </c>
     </row>
   </sheetData>
